--- a/biology/Histoire de la zoologie et de la botanique/Florian_Cosandey/Florian_Cosandey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Florian_Cosandey/Florian_Cosandey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florian Cosandey, né le 16 juin 1897 à Sainte-Croix et mort à Lausanne le 28 novembre 1982, est un enseignant, botaniste vaudois, conservateur du Musée botanique cantonal et du Jardin botanique de Montriond.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Florian Cosandey est d'abord ingénieur-constructeur, puis il obtient une licence en sciences naturelles. Après son doctorat sur les desmidiacées, des algues microscopiques, commencé en compagnie de Charles Meylan à Sainte-Croix, il est nommé en 1936 directeur de l’Institut de botanique à l’Université de Lausanne où il succède à Ernest Wilczek. Il sera doyen de la Faculté des sciences de 1940 à 1944, et recteur de l’Université de 1948 à 1950.
 Florian Cosandey réalise plusieurs travaux qui l’amènent à étudier l’hydrobiologie de divers lacs, dont celui de Bret, ainsi que les micro-organismes (algues et pollens fossiles) de la tourbière des Tenasses sur Vevey. Il est en quelque sorte l’instigateur de la paléobotanique à Lausanne.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Florian Cosandey », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Jean-Louis Moret (mars 2006)
